--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/INDIANA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/INDIANA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1327"/>
+  <dimension ref="A1:D1321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C34">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C36">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C42">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C46">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C63">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C68">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C76">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C77">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C101">
@@ -2068,7 +2068,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C129">
@@ -2229,7 +2229,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C145">
@@ -2345,7 +2345,7 @@
         <v>117</v>
       </c>
       <c r="D149">
-        <v>0.009370494954348871</v>
+        <v>0.009370494954348873</v>
       </c>
     </row>
     <row r="150">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C159">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C170">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C179">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C180">
@@ -2850,12 +2850,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C188">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C191">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C195">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C204">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C209">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C214">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C226">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C233">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C235">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C245">
@@ -3609,7 +3609,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C246">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C255">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C260">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C261">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C262">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C263">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C275">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C276">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C277">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C285">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C289">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C297">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C302">
@@ -4368,7 +4368,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C304">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C305">
@@ -4407,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C307">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C311">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C319">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C325">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C328">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C329">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C330">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C334">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C335">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C339">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C345">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C346">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C348">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C364">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C366">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C368">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C373">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C382">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C386">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C391">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C395">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C398">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C401">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C407">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C408">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C409">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C410">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C412">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C413">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C419">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C423">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C425">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C426">
@@ -6029,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C431">
@@ -6042,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C432">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C434">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C437">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C438">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C441">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C443">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C447">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C454">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C462">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C466">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C467">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C471">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C476">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C477">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C483">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C487">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C488">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C489">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C492">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C493">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C494">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C497">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C498">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C500">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C503">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C504">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C506">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C507">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C513">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C514">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C515">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C516">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C519">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C520">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C523">
@@ -7534,7 +7534,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C546">
@@ -8301,7 +8301,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C605">
@@ -8592,7 +8592,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C627">
@@ -8683,7 +8683,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C634">
@@ -8735,7 +8735,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C638">
@@ -8800,7 +8800,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C643">
@@ -8813,7 +8813,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C644">
@@ -8904,7 +8904,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C651">
@@ -8961,7 +8961,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C655">
@@ -8974,7 +8974,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C656">
@@ -9026,7 +9026,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C660">
@@ -9091,7 +9091,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C665">
@@ -9226,7 +9226,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C675">
@@ -9330,7 +9330,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C683">
@@ -9382,7 +9382,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C687">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C691">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C696">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C698">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C700">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C701">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C702">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C703">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C704">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C705">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C706">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C707">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C711">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C713">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C714">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C715">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C716">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C717">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C724">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C735">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C741">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C745">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C781">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C782">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C785">
@@ -11220,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C828">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C837">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C838">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C840">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C841">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C842">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C844">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C846">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C847">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C848">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C850">
@@ -11758,7 +11758,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C869">
@@ -11966,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C885">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C886">
@@ -12148,7 +12148,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C899">
@@ -12187,7 +12187,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C902">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C904">
@@ -12317,7 +12317,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C912">
@@ -12564,7 +12564,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C931">
@@ -12603,7 +12603,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C934">
@@ -12616,7 +12616,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C935">
@@ -12655,7 +12655,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C938">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C946">
@@ -12772,7 +12772,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C947">
@@ -12785,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C948">
@@ -12863,7 +12863,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C954">
@@ -12889,7 +12889,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C956">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C957">
@@ -12967,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C962">
@@ -13071,7 +13071,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C970">
@@ -13123,7 +13123,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C974">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C989">
@@ -13349,7 +13349,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C991">
@@ -13414,7 +13414,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C996">
@@ -13427,7 +13427,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C997">
@@ -13440,7 +13440,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C998">
@@ -13466,7 +13466,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1000">
@@ -13645,7 +13645,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1013">
@@ -13736,7 +13736,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1020">
@@ -13801,7 +13801,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1025">
@@ -13853,7 +13853,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1029">
@@ -13931,7 +13931,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1035">
@@ -13957,7 +13957,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1037">
@@ -13970,7 +13970,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1038">
@@ -13983,7 +13983,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1039">
@@ -13996,7 +13996,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1040">
@@ -14479,7 +14479,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1076">
@@ -14577,7 +14577,7 @@
         <v>116</v>
       </c>
       <c r="D1083">
-        <v>0.009290405253884351</v>
+        <v>0.009290405253884353</v>
       </c>
     </row>
     <row r="1084">
@@ -14905,7 +14905,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1108">
@@ -14970,7 +14970,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1113">
@@ -15022,7 +15022,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1117">
@@ -15035,7 +15035,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1118">
@@ -15074,7 +15074,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1121">
@@ -15087,7 +15087,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1122">
@@ -15152,7 +15152,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1127">
@@ -15282,7 +15282,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1137">
@@ -15378,7 +15378,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1144">
@@ -15417,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1147">
@@ -15534,7 +15534,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1156">
@@ -15560,7 +15560,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1158">
@@ -15729,7 +15729,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1171">
@@ -15742,7 +15742,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1172">
@@ -15937,7 +15937,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1187">
@@ -15950,7 +15950,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1188">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1189">
@@ -16002,7 +16002,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1192">
@@ -16119,7 +16119,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1201">
@@ -16171,7 +16171,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1205">
@@ -16184,7 +16184,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1206">
@@ -16236,7 +16236,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1210">
@@ -16262,7 +16262,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1212">
@@ -16457,7 +16457,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1227">
@@ -16483,7 +16483,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1229">
@@ -16574,7 +16574,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1236">
@@ -16600,7 +16600,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1238">
@@ -16964,7 +16964,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1266">
@@ -17403,7 +17403,7 @@
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1299">
@@ -17416,7 +17416,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1300">
@@ -17429,7 +17429,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1301">
@@ -17546,7 +17546,7 @@
     <row r="1310">
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1310">
@@ -17559,7 +17559,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1311">
@@ -17598,7 +17598,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1314">
@@ -17697,41 +17697,6 @@
       </c>
       <c r="D1321">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
